--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\fuels\GbPbT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19395" windowHeight="10995" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="GbPbT" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Source:</t>
   </si>
@@ -57,18 +62,45 @@
     <t>20-Year GWP</t>
   </si>
   <si>
+    <t>p. 731, Table 8.A, Row 1</t>
+  </si>
+  <si>
+    <t>p. 731, Table 8.A, Row 4</t>
+  </si>
+  <si>
+    <t>p. 731, Table 8.A, Row 2</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
     <t>F gases</t>
   </si>
   <si>
+    <t>We take in F gas emissions in units of CO2e and do not attempt to convert them to</t>
+  </si>
+  <si>
+    <t>emissions of a "generic" F gas.  We simply work in units of CO2e when handling</t>
+  </si>
+  <si>
+    <t>F gases throughout the model, so their GWP is treated as 1.</t>
+  </si>
+  <si>
     <t>BC</t>
   </si>
   <si>
     <t>OC</t>
   </si>
   <si>
+    <t>p. 739, Table 8.A.3, Row 3 (NOx North America)</t>
+  </si>
+  <si>
+    <t>p. 740, Table 8.A.4, Row 3 (CO North America)</t>
+  </si>
+  <si>
+    <t>p. 740, Table 8.A.5, Row 3 (VOC North America)</t>
+  </si>
+  <si>
     <t>Note</t>
   </si>
   <si>
@@ -81,50 +113,47 @@
     <t>be updated (likely from the same IPCC source, using different rows in the table)</t>
   </si>
   <si>
+    <t>p. 740, Table 8.A.6, Row 2 (BC four regions)</t>
+  </si>
+  <si>
+    <t>p. 740, Table 8.A.6, Row 7 (OC four regions)</t>
+  </si>
+  <si>
     <t>BC and OC values only include aerosol-radiation interaction.</t>
   </si>
   <si>
     <t>100-Year GWP</t>
   </si>
   <si>
+    <t>No value is reported by the IPCC for SOx.</t>
+  </si>
+  <si>
+    <t>Source or Note</t>
+  </si>
+  <si>
+    <t>This is handled via BC and OC, below.  To include a value here would be double-counting.</t>
+  </si>
+  <si>
     <t>twenty years</t>
   </si>
   <si>
     <t>one hundred years</t>
   </si>
   <si>
-    <t>Pollutant</t>
-  </si>
-  <si>
     <t>GbPbT GWP by Pollutant by Timeframe</t>
   </si>
   <si>
     <t>See "Data" tab for page, table, and row numbers.</t>
   </si>
   <si>
-    <t>AR Edition/Type</t>
-  </si>
-  <si>
-    <t>AR4/GWP</t>
-  </si>
-  <si>
-    <t>Time Horizon (YR)</t>
-  </si>
-  <si>
-    <t>From GREET</t>
-  </si>
-  <si>
-    <t>Showing the more limited set of pollutants included in the CA GHG inventory</t>
+    <t>Global Warming Potential (g CO2e/g pollutant)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,20 +177,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,14 +191,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -189,90 +200,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,41 +219,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -330,89 +237,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3837040</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>61953</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5708651"/>
-          <a:ext cx="7139040" cy="5586453"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>398541</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>144506</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11785600"/>
-          <a:ext cx="10710941" cy="5853155"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -712,12 +541,12 @@
     <col min="3" max="3" width="41.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,49 +554,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -793,16 +622,19 @@
     <col min="4" max="4" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -812,41 +644,53 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>5.6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>-2.4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -856,8 +700,11 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -867,8 +714,11 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -878,56 +728,69 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>-46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <f>$C$21</f>
-        <v>72</v>
-      </c>
-      <c r="C11" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="C11" s="4">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <f>$C$22</f>
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C12" s="4">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -935,82 +798,22 @@
       <c r="C13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="11">
-        <v>100</v>
-      </c>
-      <c r="C19">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="13">
-        <v>1</v>
-      </c>
-      <c r="C20" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13">
-        <v>25</v>
-      </c>
-      <c r="C21" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="15">
-        <v>298</v>
-      </c>
-      <c r="C22" s="19">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>$C$87:$D$87</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"AR5/GWP,AR5/GTP,AR4/GWP,AR3/GWP,AR2/GWP,AR1/GWP"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1021,9 +824,7 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1032,18 +833,18 @@
     <col min="3" max="3" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="str">
         <f>Data!A2</f>
         <v>CO2</v>
@@ -1057,49 +858,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="str">
         <f>Data!A3</f>
         <v>VOC</v>
       </c>
       <c r="B3" s="4">
         <f>Data!B3</f>
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="C3" s="4">
         <f>Data!C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="str">
         <f>Data!A4</f>
         <v>CO</v>
       </c>
       <c r="B4" s="4">
         <f>Data!B4</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="C4" s="4">
         <f>Data!C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="str">
         <f>Data!A5</f>
         <v>NOx</v>
       </c>
       <c r="B5" s="4">
         <f>Data!B5</f>
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="C5" s="4">
         <f>Data!C5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="str">
         <f>Data!A6</f>
         <v>PM10</v>
@@ -1113,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="str">
         <f>Data!A7</f>
         <v>PM25</v>
@@ -1127,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="str">
         <f>Data!A8</f>
         <v>SOx</v>
@@ -1141,63 +942,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="str">
         <f>Data!A9</f>
         <v>BC</v>
       </c>
       <c r="B9" s="4">
         <f>Data!B9</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C9" s="4">
         <f>Data!C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="str">
         <f>Data!A10</f>
         <v>OC</v>
       </c>
       <c r="B10" s="4">
         <f>Data!B10</f>
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="C10" s="4">
         <f>Data!C10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="str">
         <f>Data!A11</f>
         <v>CH4</v>
       </c>
       <c r="B11" s="4">
         <f>Data!B11</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4">
         <f>Data!C11</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="str">
         <f>Data!A12</f>
         <v>N2O</v>
       </c>
       <c r="B12" s="4">
         <f>Data!B12</f>
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C12" s="4">
         <f>Data!C12</f>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="str">
         <f>Data!A13</f>
         <v>F gases</v>

--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/gbpbt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\fuels\GbPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203E6BE1-8F13-E44E-9529-04F9A051F654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907BB1A7-BA85-4170-AAC4-C9BB008DBF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="24920" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="630" windowWidth="14775" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="GbPbT" sheetId="2" r:id="rId3"/>
+    <sheet name="AR5" sheetId="3" r:id="rId2"/>
+    <sheet name="AR4" sheetId="4" r:id="rId3"/>
+    <sheet name="GbPbT" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Source:</t>
   </si>
@@ -159,6 +160,9 @@
   </si>
   <si>
     <t>Global Warming Potential (g CO2e/g pollutant)</t>
+  </si>
+  <si>
+    <t>https://unfccc.int/files/meetings/ad_hoc_working_groups/kp/application/pdf/sb28_ipcc_ramaswamy.pdf</t>
   </si>
 </sst>
 </file>
@@ -190,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +204,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -239,6 +255,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -578,17 +603,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -596,7 +623,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,49 +631,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -662,17 +694,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="B11:D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -684,7 +714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -698,7 +728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -712,7 +742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -726,7 +756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -740,7 +770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -754,7 +784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -768,7 +798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -782,7 +812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -796,7 +826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -810,7 +840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -824,7 +854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -838,7 +868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -852,12 +882,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>20</v>
       </c>
@@ -868,22 +898,200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CEB37E-0F27-4ACD-AEE0-1EB5F3695AA9}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'AR5'!B3</f>
+        <v>16.2</v>
+      </c>
+      <c r="C3" s="12">
+        <f>'AR5'!C3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'AR5'!B4</f>
+        <v>5.6</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'AR5'!C4</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'AR5'!B5</f>
+        <v>-2.4</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'AR5'!C5</f>
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'AR5'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'AR5'!C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <f>'AR5'!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'AR5'!C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <f>'AR5'!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <f>'AR5'!C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'AR5'!B9</f>
+        <v>1200</v>
+      </c>
+      <c r="C9" s="4">
+        <f>'AR5'!C9</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'AR5'!B10</f>
+        <v>-160</v>
+      </c>
+      <c r="C10" s="4">
+        <f>'AR5'!C10</f>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>72</v>
+      </c>
+      <c r="C11" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
+        <v>289</v>
+      </c>
+      <c r="C12" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -894,171 +1102,171 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f>Data!A2</f>
+        <f>'AR5'!A2</f>
         <v>CO2</v>
       </c>
       <c r="B2" s="4">
-        <f>Data!B2</f>
+        <f>'AR4'!B2</f>
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <f>Data!C2</f>
+        <f>'AR4'!C2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f>Data!A3</f>
+        <f>'AR5'!A3</f>
         <v>VOC</v>
       </c>
       <c r="B3" s="4">
-        <f>Data!B3</f>
+        <f>'AR4'!B3</f>
         <v>16.2</v>
       </c>
       <c r="C3" s="4">
-        <f>Data!C3</f>
+        <f>'AR4'!C3</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>Data!A4</f>
+        <f>'AR5'!A4</f>
         <v>CO</v>
       </c>
       <c r="B4" s="4">
-        <f>Data!B4</f>
+        <f>'AR4'!B4</f>
         <v>5.6</v>
       </c>
       <c r="C4" s="4">
-        <f>Data!C4</f>
+        <f>'AR4'!C4</f>
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>Data!A5</f>
+        <f>'AR5'!A5</f>
         <v>NOx</v>
       </c>
       <c r="B5" s="4">
-        <f>Data!B5</f>
+        <f>'AR4'!B5</f>
         <v>-2.4</v>
       </c>
       <c r="C5" s="4">
-        <f>Data!C5</f>
+        <f>'AR4'!C5</f>
         <v>-8.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>Data!A6</f>
+        <f>'AR5'!A6</f>
         <v>PM10</v>
       </c>
       <c r="B6" s="4">
-        <f>Data!B6</f>
+        <f>'AR4'!B6</f>
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <f>Data!C6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f>'AR4'!C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>Data!A7</f>
+        <f>'AR5'!A7</f>
         <v>PM25</v>
       </c>
       <c r="B7" s="4">
-        <f>Data!B7</f>
+        <f>'AR4'!B7</f>
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <f>Data!C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f>'AR4'!C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>Data!A8</f>
+        <f>'AR5'!A8</f>
         <v>SOx</v>
       </c>
       <c r="B8" s="4">
-        <f>Data!B8</f>
+        <f>'AR4'!B8</f>
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <f>Data!C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f>'AR4'!C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>Data!A9</f>
+        <f>'AR5'!A9</f>
         <v>BC</v>
       </c>
       <c r="B9" s="4">
-        <f>Data!B9</f>
+        <f>'AR4'!B9</f>
         <v>1200</v>
       </c>
       <c r="C9" s="4">
-        <f>Data!C9</f>
+        <f>'AR4'!C9</f>
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>Data!A10</f>
+        <f>'AR5'!A10</f>
         <v>OC</v>
       </c>
       <c r="B10" s="4">
-        <f>Data!B10</f>
+        <f>'AR4'!B10</f>
         <v>-160</v>
       </c>
       <c r="C10" s="4">
-        <f>Data!C10</f>
+        <f>'AR4'!C10</f>
         <v>-46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>Data!A11</f>
+        <f>'AR5'!A11</f>
         <v>CH4</v>
       </c>
       <c r="B11" s="4">
-        <f>Data!B11</f>
-        <v>84</v>
+        <f>'AR4'!B11</f>
+        <v>72</v>
       </c>
       <c r="C11" s="4">
-        <f>Data!C11</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f>'AR4'!C11</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
-        <f>Data!A12</f>
+        <f>'AR5'!A12</f>
         <v>N2O</v>
       </c>
       <c r="B12" s="4">
-        <f>Data!B12</f>
-        <v>264</v>
+        <f>'AR4'!B12</f>
+        <v>289</v>
       </c>
       <c r="C12" s="4">
-        <f>Data!C12</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f>'AR4'!C12</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
-        <f>Data!A13</f>
+        <f>'AR5'!A13</f>
         <v>F gases</v>
       </c>
       <c r="B13" s="4">
-        <f>Data!B13</f>
+        <f>'AR4'!B13</f>
         <v>1</v>
       </c>
       <c r="C13" s="4">
-        <f>Data!C13</f>
+        <f>'AR4'!C13</f>
         <v>1</v>
       </c>
     </row>

--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\fuels\GbPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907BB1A7-BA85-4170-AAC4-C9BB008DBF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF317D2B-DD6B-4CF6-A637-94915DC21A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="630" windowWidth="14775" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1305" windowWidth="26715" windowHeight="16695" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,12 +1122,10 @@
         <v>VOC</v>
       </c>
       <c r="B3" s="4">
-        <f>'AR4'!B3</f>
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <f>'AR4'!C3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,12 +1134,10 @@
         <v>CO</v>
       </c>
       <c r="B4" s="4">
-        <f>'AR4'!B4</f>
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f>'AR4'!C4</f>
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,12 +1146,10 @@
         <v>NOx</v>
       </c>
       <c r="B5" s="4">
-        <f>'AR4'!B5</f>
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4">
-        <f>'AR4'!C5</f>
-        <v>-8.1999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1164,11 +1158,9 @@
         <v>PM10</v>
       </c>
       <c r="B6" s="4">
-        <f>'AR4'!B6</f>
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <f>'AR4'!C6</f>
         <v>0</v>
       </c>
     </row>
@@ -1178,11 +1170,9 @@
         <v>PM25</v>
       </c>
       <c r="B7" s="4">
-        <f>'AR4'!B7</f>
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <f>'AR4'!C7</f>
         <v>0</v>
       </c>
     </row>
@@ -1192,11 +1182,9 @@
         <v>SOx</v>
       </c>
       <c r="B8" s="4">
-        <f>'AR4'!B8</f>
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <f>'AR4'!C8</f>
         <v>0</v>
       </c>
     </row>
@@ -1206,12 +1194,10 @@
         <v>BC</v>
       </c>
       <c r="B9" s="4">
-        <f>'AR4'!B9</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4">
-        <f>'AR4'!C9</f>
-        <v>345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,12 +1206,10 @@
         <v>OC</v>
       </c>
       <c r="B10" s="4">
-        <f>'AR4'!B10</f>
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4">
-        <f>'AR4'!C10</f>
-        <v>-46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\fuels\GbPbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\fuels\GbPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{706267B6-0FE9-49DD-8965-CA2DDE4EE973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12330"/>
+    <workbookView xWindow="330" yWindow="375" windowWidth="17550" windowHeight="16275" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="GbPbT" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Source:</t>
   </si>
@@ -147,12 +161,15 @@
   </si>
   <si>
     <t>Global Warming Potential (g CO2e/g pollutant)</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,6 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -320,6 +338,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -355,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,23 +582,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
-    <col min="3" max="3" width="41.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,54 +612,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -609,20 +667,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="18.59765625" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -634,7 +692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -648,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -662,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -676,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -690,7 +748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -704,7 +762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -718,7 +776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -732,7 +790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -746,7 +804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -760,7 +818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -774,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -788,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -802,12 +860,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>20</v>
       </c>
@@ -818,22 +876,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.265625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -844,7 +904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Data!A2</f>
         <v>CO2</v>
@@ -858,119 +918,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Data!A3</f>
         <v>VOC</v>
       </c>
       <c r="B3" s="4">
-        <f>Data!B3</f>
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <f>Data!C3</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Data!A4</f>
         <v>CO</v>
       </c>
       <c r="B4" s="4">
-        <f>Data!B4</f>
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f>Data!C4</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Data!A5</f>
         <v>NOx</v>
       </c>
       <c r="B5" s="4">
-        <f>Data!B5</f>
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4">
-        <f>Data!C5</f>
-        <v>-8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>Data!A6</f>
         <v>PM10</v>
       </c>
       <c r="B6" s="4">
-        <f>Data!B6</f>
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <f>Data!C6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>Data!A7</f>
         <v>PM25</v>
       </c>
       <c r="B7" s="4">
-        <f>Data!B7</f>
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <f>Data!C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>Data!A8</f>
         <v>SOx</v>
       </c>
       <c r="B8" s="4">
-        <f>Data!B8</f>
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <f>Data!C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>Data!A9</f>
         <v>BC</v>
       </c>
       <c r="B9" s="4">
-        <f>Data!B9</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4">
-        <f>Data!C9</f>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>Data!A10</f>
         <v>OC</v>
       </c>
       <c r="B10" s="4">
-        <f>Data!B10</f>
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4">
-        <f>Data!C10</f>
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>Data!A11</f>
         <v>CH4</v>
@@ -984,7 +1028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>Data!A12</f>
         <v>N2O</v>
@@ -998,7 +1042,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>Data!A13</f>
         <v>F gases</v>

--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\fuels\GbPbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\fuels\GbPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF317D2B-DD6B-4CF6-A637-94915DC21A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{706267B6-0FE9-49DD-8965-CA2DDE4EE973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1305" windowWidth="26715" windowHeight="16695" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="375" windowWidth="17550" windowHeight="16275" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="AR5" sheetId="3" r:id="rId2"/>
-    <sheet name="AR4" sheetId="4" r:id="rId3"/>
-    <sheet name="GbPbT" sheetId="2" r:id="rId4"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
+    <sheet name="GbPbT" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Source:</t>
   </si>
@@ -162,7 +163,7 @@
     <t>Global Warming Potential (g CO2e/g pollutant)</t>
   </si>
   <si>
-    <t>https://unfccc.int/files/meetings/ad_hoc_working_groups/kp/application/pdf/sb28_ipcc_ramaswamy.pdf</t>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -194,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,18 +205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,15 +244,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -603,24 +583,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
       <c r="C1" s="10">
-        <v>44307</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,11 +655,6 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -694,11 +670,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="B11:D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="80" customWidth="1"/>
   </cols>
   <sheetData>
@@ -898,182 +876,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CEB37E-0F27-4ACD-AEE0-1EB5F3695AA9}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <f>'AR5'!B3</f>
-        <v>16.2</v>
-      </c>
-      <c r="C3" s="12">
-        <f>'AR5'!C3</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <f>'AR5'!B4</f>
-        <v>5.6</v>
-      </c>
-      <c r="C4" s="4">
-        <f>'AR5'!C4</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <f>'AR5'!B5</f>
-        <v>-2.4</v>
-      </c>
-      <c r="C5" s="4">
-        <f>'AR5'!C5</f>
-        <v>-8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <f>'AR5'!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <f>'AR5'!C6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <f>'AR5'!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <f>'AR5'!C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <f>'AR5'!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <f>'AR5'!C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4">
-        <f>'AR5'!B9</f>
-        <v>1200</v>
-      </c>
-      <c r="C9" s="4">
-        <f>'AR5'!C9</f>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4">
-        <f>'AR5'!B10</f>
-        <v>-160</v>
-      </c>
-      <c r="C10" s="4">
-        <f>'AR5'!C10</f>
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13">
-        <v>72</v>
-      </c>
-      <c r="C11" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13">
-        <v>289</v>
-      </c>
-      <c r="C12" s="11">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -1081,13 +883,13 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1104,21 +906,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f>'AR5'!A2</f>
+        <f>Data!A2</f>
         <v>CO2</v>
       </c>
       <c r="B2" s="4">
-        <f>'AR4'!B2</f>
+        <f>Data!B2</f>
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <f>'AR4'!C2</f>
+        <f>Data!C2</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f>'AR5'!A3</f>
+        <f>Data!A3</f>
         <v>VOC</v>
       </c>
       <c r="B3" s="4">
@@ -1130,7 +932,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>'AR5'!A4</f>
+        <f>Data!A4</f>
         <v>CO</v>
       </c>
       <c r="B4" s="4">
@@ -1142,7 +944,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>'AR5'!A5</f>
+        <f>Data!A5</f>
         <v>NOx</v>
       </c>
       <c r="B5" s="4">
@@ -1154,7 +956,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f>'AR5'!A6</f>
+        <f>Data!A6</f>
         <v>PM10</v>
       </c>
       <c r="B6" s="4">
@@ -1166,7 +968,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>'AR5'!A7</f>
+        <f>Data!A7</f>
         <v>PM25</v>
       </c>
       <c r="B7" s="4">
@@ -1178,7 +980,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>'AR5'!A8</f>
+        <f>Data!A8</f>
         <v>SOx</v>
       </c>
       <c r="B8" s="4">
@@ -1190,7 +992,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>'AR5'!A9</f>
+        <f>Data!A9</f>
         <v>BC</v>
       </c>
       <c r="B9" s="4">
@@ -1202,7 +1004,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>'AR5'!A10</f>
+        <f>Data!A10</f>
         <v>OC</v>
       </c>
       <c r="B10" s="4">
@@ -1214,43 +1016,43 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>'AR5'!A11</f>
+        <f>Data!A11</f>
         <v>CH4</v>
       </c>
       <c r="B11" s="4">
-        <f>'AR4'!B11</f>
-        <v>72</v>
+        <f>Data!B11</f>
+        <v>84</v>
       </c>
       <c r="C11" s="4">
-        <f>'AR4'!C11</f>
-        <v>25</v>
+        <f>Data!C11</f>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
-        <f>'AR5'!A12</f>
+        <f>Data!A12</f>
         <v>N2O</v>
       </c>
       <c r="B12" s="4">
-        <f>'AR4'!B12</f>
-        <v>289</v>
+        <f>Data!B12</f>
+        <v>264</v>
       </c>
       <c r="C12" s="4">
-        <f>'AR4'!C12</f>
-        <v>298</v>
+        <f>Data!C12</f>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
-        <f>'AR5'!A13</f>
+        <f>Data!A13</f>
         <v>F gases</v>
       </c>
       <c r="B13" s="4">
-        <f>'AR4'!B13</f>
+        <f>Data!B13</f>
         <v>1</v>
       </c>
       <c r="C13" s="4">
-        <f>'AR4'!C13</f>
+        <f>Data!C13</f>
         <v>1</v>
       </c>
     </row>

--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\fuels\GbPbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\fuels\GbPbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{706267B6-0FE9-49DD-8965-CA2DDE4EE973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CFE059D-3E7A-4866-BAC2-2ED867446807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="375" windowWidth="17550" windowHeight="16275" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="720" windowWidth="14480" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -263,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -303,9 +303,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,26 +338,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,26 +373,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,7 +567,7 @@
         <v>42</v>
       </c>
       <c r="C1" s="10">
-        <v>44861</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
